--- a/biology/Botanique/Phylloporus_pelletieri/Phylloporus_pelletieri.xlsx
+++ b/biology/Botanique/Phylloporus_pelletieri/Phylloporus_pelletieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet à lames, Phyllopore d'Europe, Phyllopore de Pelletier
 Phylloporus pelletieri, le Bolet à lames ou Phyllopore d'Europe, est une espèce de champignon (Fungi) basidiomycète du genre Phylloporus dans la famille des Boletaceae, caractérisé par son hyménophore lamelliforme.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Phylloporus pelletieri (Lév.) Quél.[1].
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus pelletieri Lév.[1].
-Synonymes
-Phylloporus pelletieri a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Phylloporus pelletieri (Lév.) Quél..
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus pelletieri Lév..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Phylloporus_pelletieri</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phylloporus_pelletieri</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylloporus pelletieri a pour synonymes :
 Agaricus difformis subsp. pelletieri (Lév.) Britzelm.
 Agaricus paradoxus Kalchbr.
 Agaricus pelletieri Lév.
@@ -541,49 +590,191 @@
 Xerocomus pellerieri (Lév.) Binder
 Xerocomus pelleteri (Lév.) Bresinsky &amp; Manfr.Binder
 Xerocomus pelletieri (Lév.) Bresinsky &amp; Manfr.Binder
-Phylogénie
-Cette espèce a été décrite pour la première fois par le mycologue français Joseph-Henri Léveillé en 1867 sous le nom d'Agaricus pelletieri. Lucien Quélet l'a transférée dans le groupe des Phylloporus en 1888.
-Étymologie
-L'épithète spécifique est dédiée au Capitaine Pelletier, auteur d'aquarelles de champignons entre 1848 et 1867[2].
-Noms vulgaires et vernaculaires
-Bolet à lames, Phyllopore d'Europe, Phyllopore de Pelletier.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Phylloporus_pelletieri</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Phylloporus_pelletieri</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois par le mycologue français Joseph-Henri Léveillé en 1867 sous le nom d'Agaricus pelletieri. Lucien Quélet l'a transférée dans le groupe des Phylloporus en 1888.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phylloporus_pelletieri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phylloporus_pelletieri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique est dédiée au Capitaine Pelletier, auteur d'aquarelles de champignons entre 1848 et 1867.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phylloporus_pelletieri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phylloporus_pelletieri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolet à lames, Phyllopore d'Europe, Phyllopore de Pelletier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Phylloporus_pelletieri</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phylloporus_pelletieri</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Phylloporus pelletieri se distingue des autres bolets par la présence de lames à la place de tubes. Ses caractéristiques sont les suivantes :
-Son chapeau mesure jusqu'à 8 cm[2], il est sec et velouté, de couleur brun bai à brun rougeâtre, parfois avec des reflets verdâtres[3].
-L'hyménophore est lamelliforme. Les lames sont espacées et épaisses, anastomosées dans le fond et fourchues, de couleur jaune d'or puis ocre rouillé[2].
-Son stipe mesure jusqu'à 7 x 2 cm. Il est fibro-strié à ridulé, de couleur rouge à brun-rouge, jaune d'or en bas et sous les lames. Il présente un beau réseau rouge à mailles allongées, pointillées[2].
-La chair est jaunâtre ou rougeâtre, un peu vineuse en coupe. Sa saveur est douce[2].
-Caractéristiques microscopiques
-Ses spores mesurent 12-14 x 4-5 µm, de forme plus ou moins fusoïde[2].
+Son chapeau mesure jusqu'à 8 cm, il est sec et velouté, de couleur brun bai à brun rougeâtre, parfois avec des reflets verdâtres.
+L'hyménophore est lamelliforme. Les lames sont espacées et épaisses, anastomosées dans le fond et fourchues, de couleur jaune d'or puis ocre rouillé.
+Son stipe mesure jusqu'à 7 x 2 cm. Il est fibro-strié à ridulé, de couleur rouge à brun-rouge, jaune d'or en bas et sous les lames. Il présente un beau réseau rouge à mailles allongées, pointillées.
+La chair est jaunâtre ou rougeâtre, un peu vineuse en coupe. Sa saveur est douce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Phylloporus_pelletieri</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phylloporus_pelletieri</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 12-14 x 4-5 µm, de forme plus ou moins fusoïde.
 </t>
         </is>
       </c>
